--- a/C3_BackendWorkflows/Data/Config.xlsx
+++ b/C3_BackendWorkflows/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjain\Desktop\C3_BackendWorkflows\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PTalluri\Documents\FedExUPW\C3_BackendWorkflows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -317,13 +317,13 @@
     <t>MicrosoftloginEmail</t>
   </si>
   <si>
-    <t>c5110612</t>
-  </si>
-  <si>
-    <t>Conejo15</t>
-  </si>
-  <si>
-    <t>sandra.preza.osv@fedex.com</t>
+    <t>c5006981</t>
+  </si>
+  <si>
+    <t>Realmd01</t>
+  </si>
+  <si>
+    <t>Elder.garcia.osv@fedex.com</t>
   </si>
 </sst>
 </file>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -785,7 +785,7 @@
         <v>54</v>
       </c>
       <c r="B9" s="6">
-        <v>5110612</v>
+        <v>5006981</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -950,7 +950,7 @@
         <v>90</v>
       </c>
       <c r="B30" s="6">
-        <v>5110612</v>
+        <v>5006981</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
